--- a/Main/EVE For Me/Database/EVE_TypeID_satellite ore.xlsx
+++ b/Main/EVE For Me/Database/EVE_TypeID_satellite ore.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nqr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nqr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BFF929-E4F0-4608-9091-EDC1543D7714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B26ADC-FB5C-40EC-9031-983D57B53383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="3255" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Common" sheetId="1" r:id="rId1"/>
+    <sheet name="Compression" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +96,86 @@
   </si>
   <si>
     <t>白钨矿</t>
+  </si>
+  <si>
+    <t>高密度磷钇矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度铈铌钙钛矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度独居石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度硅铍钇矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度锆石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度砷铂矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度铯榴石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度朱砂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度榍石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度铬铁矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度沸石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度沥青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度钒钾铀矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度柯石英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度钒铅矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度钴酸盐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度黑稀金矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度白钨矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度菱镉矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度钾盐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -442,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,4 +704,192 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F96626-4D0E-4DF4-8268-AD1D76EA362D}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>62510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>62504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>62507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>62513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>62501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>62486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>62498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1">
+        <v>62495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>62477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1">
+        <v>62483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1">
+        <v>62480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1">
+        <v>62463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1">
+        <v>62454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>62492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1">
+        <v>62457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1">
+        <v>62489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1">
+        <v>62474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1">
+        <v>62460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1">
+        <v>62471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1">
+        <v>62468</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>